--- a/biology/Médecine/Centre_hospitalier_et_universitaire_de_la_mère_et_de_l'enfant_lagune_de_Cotonou/Centre_hospitalier_et_universitaire_de_la_mère_et_de_l'enfant_lagune_de_Cotonou.xlsx
+++ b/biology/Médecine/Centre_hospitalier_et_universitaire_de_la_mère_et_de_l'enfant_lagune_de_Cotonou/Centre_hospitalier_et_universitaire_de_la_mère_et_de_l'enfant_lagune_de_Cotonou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_et_universitaire_de_la_m%C3%A8re_et_de_l%27enfant_lagune_de_Cotonou</t>
+          <t>Centre_hospitalier_et_universitaire_de_la_mère_et_de_l'enfant_lagune_de_Cotonou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Centre hospitalier et universitaire de la mère et de l'enfant lagune de Cotonou (CHU-mel), est un hôpital béninois spécialisé dans la santé maternelle et infantile[1],[2].
+Le Centre hospitalier et universitaire de la mère et de l'enfant lagune de Cotonou (CHU-mel), est un hôpital béninois spécialisé dans la santé maternelle et infantile,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_et_universitaire_de_la_m%C3%A8re_et_de_l%27enfant_lagune_de_Cotonou</t>
+          <t>Centre_hospitalier_et_universitaire_de_la_mère_et_de_l'enfant_lagune_de_Cotonou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anciennement connu sous l’appellation hôpital de la mère et de l'enfant (HOMEL), il est érigé par décret présidentiel du  N° 2014-528 du 25 août 2014 en centre hospitalier universitaire et change de nom pour devenir le centre hospitalier et universitaire de la mère et de l'enfant lagune (CHU-mel)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anciennement connu sous l’appellation hôpital de la mère et de l'enfant (HOMEL), il est érigé par décret présidentiel du  N° 2014-528 du 25 août 2014 en centre hospitalier universitaire et change de nom pour devenir le centre hospitalier et universitaire de la mère et de l'enfant lagune (CHU-mel).
 Au Bénin, cet hôpital est un centre de référence dans le domaine de la santé et essentiellement dédié à la mère et à l'enfant. Il est situé dans la capitale économique du Bénin.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_et_universitaire_de_la_m%C3%A8re_et_de_l%27enfant_lagune_de_Cotonou</t>
+          <t>Centre_hospitalier_et_universitaire_de_la_mère_et_de_l'enfant_lagune_de_Cotonou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
